--- a/advisors/src/main/java/cnuphys/advisors/data/Fall2024/raw/ALCS_Raw.xlsx
+++ b/advisors/src/main/java/cnuphys/advisors/data/Fall2024/raw/ALCS_Raw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heddle/bCNU/advisors/src/main/java/cnuphys/advisors/data/Fall2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heddle/bCNU/advisors/src/main/java/cnuphys/advisors/data/Fall2024/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AA42622-C1E2-714E-BAF4-1E8AAC16B65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B2217F-007F-6246-B33C-9237FDFA3F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="7440" windowWidth="29040" windowHeight="15720" xr2:uid="{043AAE89-369E-4F13-B4CC-46A3FAA1C355}"/>
+    <workbookView xWindow="-34900" yWindow="4920" windowWidth="29040" windowHeight="15720" xr2:uid="{043AAE89-369E-4F13-B4CC-46A3FAA1C355}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,24 +36,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="72">
   <si>
-    <t>Learning Community Title</t>
-  </si>
-  <si>
     <t>CRN</t>
   </si>
   <si>
     <t>Subject</t>
   </si>
   <si>
-    <t>Course #</t>
-  </si>
-  <si>
     <t>ALC</t>
   </si>
   <si>
-    <t>INSTRUCTOR as of 6/27</t>
-  </si>
-  <si>
     <t>Analyzing Our World (ALC)</t>
   </si>
   <si>
@@ -250,6 +241,15 @@
   </si>
   <si>
     <t>LC</t>
+  </si>
+  <si>
+    <t>LLC</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>INSTRUCTOR</t>
   </si>
 </sst>
 </file>
@@ -660,7 +660,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="57.5" defaultRowHeight="15"/>
@@ -677,25 +677,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1" ht="17">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17">
@@ -703,22 +703,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="5">
         <v>8018</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E2" s="5">
         <v>202</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17">
@@ -726,22 +726,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="5">
         <v>8546</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3" s="5">
         <v>111</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17">
@@ -749,22 +749,22 @@
         <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5">
         <v>8116</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5">
         <v>140</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17">
@@ -772,22 +772,22 @@
         <v>10</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5">
         <v>8492</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5">
         <v>210</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17">
@@ -795,22 +795,22 @@
         <v>12</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5">
         <v>8143</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" s="5">
         <v>123</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17">
@@ -818,22 +818,22 @@
         <v>17</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5">
         <v>8898</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7" s="5">
         <v>121</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17">
@@ -841,22 +841,22 @@
         <v>24</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" s="5">
         <v>8216</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8" s="5">
         <v>211</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17">
@@ -864,22 +864,22 @@
         <v>25</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="5">
         <v>8345</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="5">
         <v>208</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17">
@@ -887,22 +887,22 @@
         <v>27</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5">
         <v>8144</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10" s="5">
         <v>123</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17">
@@ -910,22 +910,22 @@
         <v>30</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="5">
         <v>8397</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E11" s="5">
         <v>101</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17">
@@ -933,22 +933,22 @@
         <v>32</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" s="5">
         <v>8638</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E12" s="5">
         <v>205</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17">
@@ -956,22 +956,22 @@
         <v>33</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" s="5">
         <v>8958</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E13" s="5">
         <v>212</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17">
@@ -979,22 +979,22 @@
         <v>34</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C14" s="5">
         <v>9115</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E14" s="5">
         <v>100</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17">
@@ -1002,22 +1002,22 @@
         <v>35</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C15" s="5">
         <v>9111</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E15" s="5">
         <v>100</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17">
@@ -1025,22 +1025,22 @@
         <v>43</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5">
         <v>8070</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E16" s="5">
         <v>100</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17">
@@ -1048,22 +1048,22 @@
         <v>45</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C17" s="5">
         <v>8489</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E17" s="5">
         <v>210</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17">
@@ -1071,22 +1071,22 @@
         <v>47</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C18" s="5">
         <v>8486</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E18" s="5">
         <v>210</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17">
@@ -1094,22 +1094,22 @@
         <v>49</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C19" s="5">
         <v>8086</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="5">
         <v>125</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17">
@@ -1117,22 +1117,22 @@
         <v>51</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C20" s="5">
         <v>8711</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E20" s="5">
         <v>207</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17">
@@ -1140,22 +1140,22 @@
         <v>53</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C21" s="5">
         <v>8093</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="5">
         <v>125</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17">
@@ -1163,22 +1163,22 @@
         <v>55</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="5">
         <v>9041</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E22" s="5">
         <v>209</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17">
@@ -1186,22 +1186,22 @@
         <v>56</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C23" s="5">
         <v>8147</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E23" s="5">
         <v>123</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17">
@@ -1209,22 +1209,22 @@
         <v>58</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C24" s="5">
         <v>9136</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E24" s="5">
         <v>220</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17">
@@ -1232,22 +1232,22 @@
         <v>60</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C25" s="5">
         <v>8667</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E25" s="5">
         <v>200</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17">
@@ -1255,22 +1255,22 @@
         <v>61</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C26" s="5">
         <v>8550</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E26" s="5">
         <v>112</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17">
@@ -1278,22 +1278,22 @@
         <v>62</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C27" s="5">
         <v>8568</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E27" s="5">
         <v>122</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17">
@@ -1301,22 +1301,22 @@
         <v>64</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C28" s="5">
         <v>8570</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E28" s="5">
         <v>122</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17">
@@ -1324,22 +1324,22 @@
         <v>67</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C29" s="5">
         <v>9129</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E29" s="5">
         <v>203</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17">
@@ -1347,22 +1347,22 @@
         <v>71</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C30" s="5">
         <v>9014</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E30" s="5">
         <v>232</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
